--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-8074-F7Hwv8KlmOyh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0D8D8A-DE68-5F4E-9E68-DCC6179B5D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1353BE34-6D67-4645-82F4-FB7B300C019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12540" windowWidth="38400" windowHeight="10620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="120" yWindow="12380" windowWidth="38400" windowHeight="8940" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>key</t>
   </si>
@@ -76,82 +76,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uiCondition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uiComponent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cn.vertxup.ambient.domain.tables.daos.XMenuDao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视图权限定义部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>界面配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uiConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分组类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组配置信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupMapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ba485b02-64e4-42cb-ac16-4e6222eeccca</t>
   </si>
   <si>
@@ -244,22 +188,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>groupComponent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组专用组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>91a78ce8-30c7-4894-b235-730eb3e61255</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:plugin/ke/admin.menu/ui.condition.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菜单设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +213,82 @@
   </si>
   <si>
     <t>uiSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据呈现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiSurface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.menu/dm.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.vertx.aeon.specification.secure.HSDimNorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,6 +336,22 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -480,37 +504,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,16 +554,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -911,168 +943,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:M6"/>
+  <dimension ref="A3:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="66.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="45.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="13" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="66.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="C3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="M5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="33">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="M6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="N6" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,143 +1132,143 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="55.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="84.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>38</v>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>39</v>
+      <c r="D5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="26" t="str">
+      <c r="A6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="17" t="str">
         <f>'DATA-RULE'!A$6</f>
         <v>f37f66c0-40a9-4816-ade2-4230f4ee045f</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="C6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1353BE34-6D67-4645-82F4-FB7B300C019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2229F6-81DE-C743-9C75-5D28C9F61486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="12380" windowWidth="38400" windowHeight="8940" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="8760" windowWidth="38400" windowHeight="12560" activeTab="2" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
     <sheet name="DATA-ITEM" sheetId="4" r:id="rId2"/>
+    <sheet name="REMOTE" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -554,22 +555,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -599,6 +588,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -945,172 +946,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="45.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="13" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="66.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="25"/>
+    <col min="1" max="1" width="45.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="13" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="66.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="21"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="29">
         <v>1</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="33" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1127,7 +1128,7 @@
   <dimension ref="A3:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
@@ -1156,18 +1157,18 @@
       <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
@@ -1278,4 +1279,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E237CA21-A2BC-9741-8A18-E7CBD2159F58}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2229F6-81DE-C743-9C75-5D28C9F61486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F66C5-9E7D-7047-9D54-DE886C13B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8760" windowWidth="38400" windowHeight="12560" activeTab="2" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="10000" windowWidth="38400" windowHeight="12560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>key</t>
   </si>
@@ -290,6 +290,18 @@
   </si>
   <si>
     <t>mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:N6"/>
+  <dimension ref="A3:O6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -955,23 +967,24 @@
     <col min="1" max="1" width="45.5" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="13" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="66.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="61" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="21"/>
+    <col min="4" max="4" width="11.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="13" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="66.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="61" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="21"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="22" t="s">
         <v>43</v>
       </c>
@@ -1004,40 +1018,43 @@
         <v>45</v>
       </c>
       <c r="D4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="I4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="J4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="K4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="L4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="N4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="O4" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
@@ -1048,40 +1065,43 @@
         <v>8</v>
       </c>
       <c r="D5" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="I5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="J5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="K5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="L5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="M5" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="N5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="O5" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
@@ -1091,31 +1111,34 @@
       <c r="C6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="29">
         <v>1</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="N6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1128,7 +1151,7 @@
   <dimension ref="A3:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
@@ -1285,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E237CA21-A2BC-9741-8A18-E7CBD2159F58}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F66C5-9E7D-7047-9D54-DE886C13B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B547725-9A2B-844A-A363-10D6B75906C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10000" windowWidth="38400" windowHeight="12560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>key</t>
   </si>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.vertx.aeon.specification.secure.HSUiNorm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +963,7 @@
   <dimension ref="A3:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -970,7 +974,7 @@
     <col min="4" max="4" width="11.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="31" customWidth="1"/>
     <col min="11" max="11" width="13" style="31" bestFit="1" customWidth="1"/>
@@ -1121,7 +1125,9 @@
         <v>11</v>
       </c>
       <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="H6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="29" t="s">

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B547725-9A2B-844A-A363-10D6B75906C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F973BB2-D727-1540-BB95-59121990AA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10000" windowWidth="38400" windowHeight="12560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>key</t>
   </si>
@@ -306,6 +306,22 @@
   </si>
   <si>
     <t>io.vertx.aeon.specification.secure.HSUiNorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.menu/ui.condition.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:O6"/>
+  <dimension ref="A3:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -971,24 +987,26 @@
     <col min="1" max="1" width="45.5" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="31" customWidth="1"/>
-    <col min="11" max="11" width="13" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="66.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="61" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="21"/>
+    <col min="4" max="4" width="8.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="66.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="21"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1010,8 +1028,9 @@
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="22" t="s">
         <v>43</v>
       </c>
@@ -1022,43 +1041,46 @@
         <v>45</v>
       </c>
       <c r="D4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="J4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="K4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="L4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="N4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="O4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="P4" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
@@ -1069,43 +1091,46 @@
         <v>8</v>
       </c>
       <c r="D5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="J5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="K5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="L5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="M5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="N5" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="O5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="P5" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
@@ -1116,35 +1141,40 @@
         <v>9</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="29">
+      <c r="F6" s="29">
         <v>1</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="28"/>
       <c r="H6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="27"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="27"/>
+      <c r="N6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="O6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C3:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F973BB2-D727-1540-BB95-59121990AA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C372DF-D65C-4F40-8C19-70F3C1D17C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10000" windowWidth="38400" windowHeight="12560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="100" yWindow="13460" windowWidth="38400" windowHeight="22060" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>key</t>
   </si>
@@ -322,6 +322,14 @@
   </si>
   <si>
     <t>JSON:authority/auth.menu/ui.condition.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.menu/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.menu/ui.surface.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -993,8 +1001,8 @@
     <col min="7" max="7" width="11.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.6640625" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="46.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" style="31" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="47.83203125" style="21" bestFit="1" customWidth="1"/>
@@ -1158,8 +1166,12 @@
       <c r="I6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="J6" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="L6" s="29" t="s">
         <v>56</v>
       </c>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C372DF-D65C-4F40-8C19-70F3C1D17C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A6F52D-B506-694D-8A90-D849E77C7232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="13460" windowWidth="38400" windowHeight="22060" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-320" yWindow="12740" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>io.vertx.aeon.specification.secure.HSDimNorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>维度映射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>io.vertx.aeon.specification.secure.HSUiNorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +322,14 @@
   </si>
   <si>
     <t>JSON:authority/auth.menu/ui.surface.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.vertx.tp.rbac.acl.rule.HSDimNorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.vertx.tp.rbac.acl.rule.HSUiNorm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1000,13 +1000,13 @@
     <col min="6" max="6" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.83203125" style="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" style="31" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="47.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="51.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="66.83203125" style="21" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="61" style="21" bestFit="1" customWidth="1"/>
@@ -1049,10 +1049,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>46</v>
@@ -1085,7 +1085,7 @@
         <v>62</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1099,10 +1099,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>47</v>
@@ -1135,7 +1135,7 @@
         <v>63</v>
       </c>
       <c r="P5" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1149,10 +1149,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="29">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>11</v>
       </c>
       <c r="H6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="L6" s="29" t="s">
         <v>56</v>
@@ -1180,7 +1180,7 @@
         <v>61</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P6" s="27"/>
     </row>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-54839-1ivTWw63bmTv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A6F52D-B506-694D-8A90-D849E77C7232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD39E4-D898-D741-96F5-1A192E44CAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-320" yWindow="12740" windowWidth="38400" windowHeight="22360" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="10440" windowWidth="38400" windowHeight="12420" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>关联资源</t>
   </si>
   <si>
-    <t>resourceId</t>
-  </si>
-  <si>
     <t>S_PATH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,96 +100,18 @@
     <t>关联Path</t>
   </si>
   <si>
-    <t>pathId</t>
-  </si>
-  <si>
-    <t>行过滤类型</t>
-  </si>
-  <si>
-    <t>rowType</t>
-  </si>
-  <si>
-    <t>SINGLE</t>
-  </si>
-  <si>
-    <t>行字段名</t>
-  </si>
-  <si>
-    <t>rowField</t>
-  </si>
-  <si>
-    <t>多字段模板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowTpl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多字段的映射关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowTplMapping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列过滤类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>colType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>列配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>colConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件模板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condTpl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询条件映射关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condTplMapping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>S_PACKET</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询映射配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>资源定义主键</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>91a78ce8-30c7-4894-b235-730eb3e61255</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>菜单设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,13 +250,101 @@
   <si>
     <t>io.vertx.tp.rbac.acl.rule.HSUiNorm</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.menu.read</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行映射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列映射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询映射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hMapping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vMapping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qMapping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.menu.rule/h.config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,30 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
@@ -393,6 +376,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -545,21 +536,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,9 +603,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -595,51 +619,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -986,203 +969,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A3:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="45.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="66.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11" style="21"/>
+    <col min="1" max="1" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="66.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>64</v>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="D5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="E5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>65</v>
+      <c r="J5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="27"/>
+      <c r="G6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1198,149 +1181,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBA6181-C1FB-1A46-88E9-BFF81B142D2D}">
   <dimension ref="A3:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="55.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="84.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>24</v>
+      <c r="J4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>25</v>
+      <c r="B5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="17" t="str">
-        <f>'DATA-RULE'!A$6</f>
-        <v>f37f66c0-40a9-4816-ade2-4230f4ee045f</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="29" t="str">
+        <f>'DATA-RULE'!C6</f>
+        <v>rule.menu.definition</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-54839-1ivTWw63bmTv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD39E4-D898-D741-96F5-1A192E44CAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1D457-4CA3-F440-9E1A-5C45E33741DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10440" windowWidth="38400" windowHeight="12420" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -336,7 +336,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:authority/auth.menu.rule/h.config.json</t>
+    <t>JSON:authority/auth.menu/res.menu.read/h.config.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -573,56 +573,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1004,22 +1004,22 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
@@ -1182,7 +1182,7 @@
   <dimension ref="A3:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -1192,7 +1192,7 @@
     <col min="3" max="3" width="16.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.5" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -1206,125 +1206,125 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="29" t="str">
+      <c r="B6" s="25" t="str">
         <f>'DATA-RULE'!C6</f>
         <v>rule.menu.definition</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1D457-4CA3-F440-9E1A-5C45E33741DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF91171-87AC-604D-B3FB-04D2238E9285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10440" windowWidth="38400" windowHeight="12420" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>key</t>
   </si>
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>JSON:authority/auth.menu/res.menu.read/h.config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.menu/res.menu.read/h.mapping.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,6 +627,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1182,7 +1192,7 @@
   <dimension ref="A3:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -1191,7 +1201,7 @@
     <col min="2" max="2" width="23.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62.5" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
@@ -1238,10 +1248,10 @@
       <c r="D4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="32" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -1276,10 +1286,10 @@
       <c r="D5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="33" t="s">
         <v>68</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -1315,8 +1325,10 @@
       <c r="D6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="23"/>

--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/admin.authority.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/lm/r14tlhyj7fncnytfwf3v8dc00000gn/T/tmp-6111-Xm2SsRfbx6dD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF91171-87AC-604D-B3FB-04D2238E9285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B696C423-CF2B-4F4B-B4F5-583E627703D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10440" windowWidth="38400" windowHeight="12420" activeTab="1" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63220" yWindow="6380" windowWidth="38400" windowHeight="17840" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RULE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>key</t>
   </si>
@@ -244,14 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>io.vertx.tp.rbac.acl.rule.HSDimNorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>io.vertx.tp.rbac.acl.rule.HSUiNorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -342,6 +334,45 @@
   <si>
     <t>JSON:authority/auth.menu/res.menu.read/h.mapping.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9455c4f4-dfcc-4cb4-a31e-6dcf5772e6ed</t>
+  </si>
+  <si>
+    <t>流程设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule.flow.definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/ui.condition.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/ui.surface.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:authority/auth.flow/dm.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.vertx.tp.rbac.ruler.HSUiNorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.vertx.tp.rbac.ruler.HSDimNorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -617,6 +648,12 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,12 +664,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -977,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:P6"/>
+  <dimension ref="A3:P7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -989,9 +1020,7 @@
     <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.1640625" style="13" bestFit="1" customWidth="1"/>
@@ -1014,22 +1043,22 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
@@ -1050,7 +1079,7 @@
       <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1100,7 +1129,7 @@
       <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -1150,14 +1179,14 @@
       <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>51</v>
@@ -1173,9 +1202,51 @@
         <v>39</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1191,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBA6181-C1FB-1A46-88E9-BFF81B142D2D}">
   <dimension ref="A3:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
@@ -1222,18 +1293,18 @@
       <c r="B3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="15" t="s">
@@ -1246,31 +1317,31 @@
         <v>3</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="G4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="H4" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1278,37 +1349,37 @@
         <v>0</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="G5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="H5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="I5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="J5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="K5" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="L5" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1320,16 +1391,16 @@
         <v>rule.menu.definition</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>77</v>
-      </c>
       <c r="F6" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="9"/>
